--- a/7RMartProject/src/test/resources/TestData.xlsx
+++ b/7RMartProject/src/test/resources/TestData.xlsx
@@ -5,15 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abishika V V\eclipse-workspace\7RMartProject\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abishika V V\git\7RMart_Project\7RMartProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7411BE1F-D721-4019-B9C8-373FC9D5ECB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA9D255-128D-41C1-9B1A-FAABE948395D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="ManageNewsPage" sheetId="2" r:id="rId2"/>
+    <sheet name="SubCategoryPage" sheetId="3" r:id="rId3"/>
+    <sheet name="AdminUserPage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>
@@ -39,14 +42,20 @@
     <t>1admin</t>
   </si>
   <si>
-    <t xml:space="preserve">HEYY </t>
+    <t>New Offer Alert !!!</t>
+  </si>
+  <si>
+    <t>Fresh Fruits!!!</t>
+  </si>
+  <si>
+    <t>Abi@</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +68,14 @@
       <color rgb="FF17C6A3"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,14 +95,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -364,52 +384,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5998A0F8-5878-4EB4-B8ED-ADCA52F84C96}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037BACC0-06F5-459C-8ACA-644734AD011F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91B961E-96A8-4351-911A-CB30C9ABC5A7}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>54321</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{F6FC0DA0-E7EC-4B4E-8ADE-BAB323C3DF2B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/7RMartProject/src/test/resources/TestData.xlsx
+++ b/7RMartProject/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abishika V V\git\7RMart_Project\7RMartProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA9D255-128D-41C1-9B1A-FAABE948395D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7535D3-631A-4E74-BB65-96FD7BB95D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>admin</t>
   </si>
@@ -48,7 +48,10 @@
     <t>Fresh Fruits!!!</t>
   </si>
   <si>
-    <t>Abi@</t>
+    <t>Abiii</t>
+  </si>
+  <si>
+    <t>Shilpa</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91B961E-96A8-4351-911A-CB30C9ABC5A7}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,13 +491,18 @@
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1">
-        <v>54321</v>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{F6FC0DA0-E7EC-4B4E-8ADE-BAB323C3DF2B}"/>
+    <hyperlink ref="A1" r:id="rId1" display="Abi@" xr:uid="{F6FC0DA0-E7EC-4B4E-8ADE-BAB323C3DF2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
